--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="61">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t xml:space="preserve">Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC = &lt;Value&gt; v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADC1 Value = &lt;value&gt; V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId6</t>
   </si>
 </sst>
 </file>
@@ -1435,6 +1462,23 @@
       </c>
     </row>
     <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
@@ -1633,6 +1677,40 @@
         <v>49</v>
       </c>
     </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="65">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
   </si>
 </sst>
 </file>
@@ -1477,9 +1489,13 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1645,27 +1661,27 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -1674,15 +1690,15 @@
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>51</v>
@@ -1691,24 +1707,24 @@
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
